--- a/artfynd/A 32244-2020.xlsx
+++ b/artfynd/A 32244-2020.xlsx
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>717045.2742309959</v>
+        <v>717045</v>
       </c>
       <c r="R53" t="n">
-        <v>6646924.216150446</v>
+        <v>6646924</v>
       </c>
       <c r="S53" t="n">
         <v>100</v>
@@ -6811,19 +6811,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">

--- a/artfynd/A 32244-2020.xlsx
+++ b/artfynd/A 32244-2020.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67914010</v>
+        <v>67914826</v>
       </c>
       <c r="B3" t="n">
-        <v>93235</v>
+        <v>108194</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,33 +816,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>219711</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -851,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>716545.1521927882</v>
+        <v>717052.9258912012</v>
       </c>
       <c r="R3" t="n">
-        <v>6646588.154634802</v>
+        <v>6646811.022708044</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -897,11 +889,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67914826</v>
+        <v>67914804</v>
       </c>
       <c r="B4" t="n">
-        <v>108194</v>
+        <v>88896</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,41 +927,48 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219711</v>
+        <v>720</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>717052.9258912012</v>
+        <v>717054.0436666304</v>
       </c>
       <c r="R4" t="n">
-        <v>6646811.022708044</v>
+        <v>6646791.97993397</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1025,6 +1019,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1043,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67914804</v>
+        <v>67913258</v>
       </c>
       <c r="B5" t="n">
-        <v>88896</v>
+        <v>90319</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,37 +1050,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>720</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1093,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>717054.0436666304</v>
+        <v>716944.959965172</v>
       </c>
       <c r="R5" t="n">
-        <v>6646791.97993397</v>
+        <v>6646874.079515913</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1166,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67913258</v>
+        <v>67913270</v>
       </c>
       <c r="B6" t="n">
-        <v>90319</v>
+        <v>90661</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,29 +1165,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>2058</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1208,10 +1203,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>716944.959965172</v>
+        <v>716880.2087797265</v>
       </c>
       <c r="R6" t="n">
-        <v>6646874.079515913</v>
+        <v>6646878.829376921</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1254,6 +1249,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>I anslutning till vildsvinsbökad mark.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1281,10 +1281,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67914177</v>
+        <v>67913209</v>
       </c>
       <c r="B7" t="n">
-        <v>108194</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1293,44 +1293,52 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219711</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>716551.2037129711</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R7" t="n">
-        <v>6646502.014087326</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1396,10 +1404,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67914236</v>
+        <v>67913282</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>89412</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,47 +1416,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>716606.9416252106</v>
+        <v>716818.1044006473</v>
       </c>
       <c r="R8" t="n">
-        <v>6646462.030048631</v>
+        <v>6647053.18770974</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1499,6 +1500,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1517,10 +1519,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67914140</v>
+        <v>67913278</v>
       </c>
       <c r="B9" t="n">
-        <v>85077</v>
+        <v>4717</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1533,36 +1535,43 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3762</v>
+        <v>102306</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>716558.9255464342</v>
+        <v>716755.7881303673</v>
       </c>
       <c r="R9" t="n">
-        <v>6646542.193822215</v>
+        <v>6646896.172787146</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1613,7 +1622,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1632,10 +1640,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67914480</v>
+        <v>67913139</v>
       </c>
       <c r="B10" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,36 +1656,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>716678.2056377706</v>
+        <v>717187.9496040216</v>
       </c>
       <c r="R10" t="n">
-        <v>6646397.810981502</v>
+        <v>6646939.130624352</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1722,13 +1731,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1747,10 +1760,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67913270</v>
+        <v>67913851</v>
       </c>
       <c r="B11" t="n">
-        <v>90661</v>
+        <v>90074</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,37 +1772,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2058</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1797,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>716880.2087797265</v>
+        <v>716689.1208222503</v>
       </c>
       <c r="R11" t="n">
-        <v>6646878.829376921</v>
+        <v>6646907.853172779</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1847,7 +1852,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>I anslutning till vildsvinsbökad mark.</t>
+          <t>På höstubbe av gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,10 +1880,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67913209</v>
+        <v>67913822</v>
       </c>
       <c r="B12" t="n">
-        <v>56411</v>
+        <v>90674</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1887,52 +1892,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>717094.2343623195</v>
+        <v>716671.0292412415</v>
       </c>
       <c r="R12" t="n">
-        <v>6646948.209421237</v>
+        <v>6646932.940137157</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1974,12 +1970,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1998,10 +2000,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67914073</v>
+        <v>67913289</v>
       </c>
       <c r="B13" t="n">
-        <v>99398</v>
+        <v>73631</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,37 +2016,36 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221235</v>
+        <v>6426</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>716558.9255464342</v>
+        <v>716779.0899203173</v>
       </c>
       <c r="R13" t="n">
-        <v>6646542.193822215</v>
+        <v>6647014.194535435</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2087,6 +2088,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2113,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67914379</v>
+        <v>67914797</v>
       </c>
       <c r="B14" t="n">
-        <v>101680</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2125,41 +2131,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222412</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>716677.1987222674</v>
+        <v>717063.1636913288</v>
       </c>
       <c r="R14" t="n">
-        <v>6646389.202686813</v>
+        <v>6646773.909642578</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2204,12 +2209,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På grenar på gammal levande gran.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2228,10 +2239,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67913282</v>
+        <v>67914512</v>
       </c>
       <c r="B15" t="n">
-        <v>89412</v>
+        <v>90005</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,25 +2251,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5442</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2270,10 +2281,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>716818.1044006473</v>
+        <v>716658.238045899</v>
       </c>
       <c r="R15" t="n">
-        <v>6647053.18770974</v>
+        <v>6646558.06836888</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2316,6 +2327,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På grov högstubbe av gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2343,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67913278</v>
+        <v>67913188</v>
       </c>
       <c r="B16" t="n">
-        <v>4717</v>
+        <v>90665</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2359,43 +2375,36 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102306</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>716755.7881303673</v>
+        <v>717179.1824814338</v>
       </c>
       <c r="R16" t="n">
-        <v>6646896.172787146</v>
+        <v>6646951.186559737</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2446,6 +2455,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2464,7 +2474,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67914145</v>
+        <v>67913183</v>
       </c>
       <c r="B17" t="n">
         <v>90674</v>
@@ -2506,10 +2516,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>716558.9255464342</v>
+        <v>717196.8702048012</v>
       </c>
       <c r="R17" t="n">
-        <v>6646542.193822215</v>
+        <v>6646958.762340512</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2584,10 +2594,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67914377</v>
+        <v>67913274</v>
       </c>
       <c r="B18" t="n">
-        <v>99398</v>
+        <v>73631</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2600,37 +2610,36 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221235</v>
+        <v>6426</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>716677.1987222674</v>
+        <v>716880.97296897</v>
       </c>
       <c r="R18" t="n">
-        <v>6646389.202686813</v>
+        <v>6646865.800371076</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2673,6 +2682,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2699,10 +2713,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67913139</v>
+        <v>67913066</v>
       </c>
       <c r="B19" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2715,21 +2729,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2790,11 +2804,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2819,10 +2828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67913851</v>
+        <v>67913254</v>
       </c>
       <c r="B20" t="n">
-        <v>90074</v>
+        <v>101680</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2835,36 +2844,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>222412</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>716689.1208222503</v>
+        <v>716951.0444857149</v>
       </c>
       <c r="R20" t="n">
-        <v>6646907.853172779</v>
+        <v>6646881.979102565</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2909,18 +2919,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>På höstubbe av gran.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2939,10 +2943,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67914156</v>
+        <v>67914880</v>
       </c>
       <c r="B21" t="n">
-        <v>90665</v>
+        <v>90074</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2955,21 +2959,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2981,10 +2985,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>716540.1688511835</v>
+        <v>717163.0512021189</v>
       </c>
       <c r="R21" t="n">
-        <v>6646527.014893715</v>
+        <v>6646899.955352104</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3027,6 +3031,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>På torrgran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3054,7 +3063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67913822</v>
+        <v>67913211</v>
       </c>
       <c r="B22" t="n">
         <v>90674</v>
@@ -3096,10 +3105,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>716671.0292412415</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R22" t="n">
-        <v>6646932.940137157</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3174,10 +3183,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67914325</v>
+        <v>67914856</v>
       </c>
       <c r="B23" t="n">
-        <v>73631</v>
+        <v>90665</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3190,21 +3199,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6426</v>
+        <v>4366</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3216,10 +3225,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>716625.9801276408</v>
+        <v>717129.1341034661</v>
       </c>
       <c r="R23" t="n">
-        <v>6646438.000615025</v>
+        <v>6646799.908343226</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3264,17 +3273,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3293,10 +3298,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67913289</v>
+        <v>67913818</v>
       </c>
       <c r="B24" t="n">
-        <v>73631</v>
+        <v>90665</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3309,21 +3314,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6426</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3335,10 +3340,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>716779.0899203173</v>
+        <v>716671.0292412415</v>
       </c>
       <c r="R24" t="n">
-        <v>6647014.194535435</v>
+        <v>6646932.940137157</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3383,17 +3388,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3412,7 +3413,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67914797</v>
+        <v>67914777</v>
       </c>
       <c r="B25" t="n">
         <v>89410</v>
@@ -3454,10 +3455,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>717063.1636913288</v>
+        <v>716852.0415224443</v>
       </c>
       <c r="R25" t="n">
-        <v>6646773.909642578</v>
+        <v>6646672.013723582</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3532,10 +3533,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67914183</v>
+        <v>67913202</v>
       </c>
       <c r="B26" t="n">
-        <v>90319</v>
+        <v>89410</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3544,25 +3545,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4769</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3574,10 +3575,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>716584.1544428288</v>
+        <v>717132.8554776106</v>
       </c>
       <c r="R26" t="n">
-        <v>6646489.862934983</v>
+        <v>6646950.979990459</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3620,6 +3621,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På grenar på torrgran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3647,10 +3653,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67914512</v>
+        <v>67914522</v>
       </c>
       <c r="B27" t="n">
-        <v>90005</v>
+        <v>98520</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3663,26 +3669,27 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1339</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
@@ -3739,7 +3746,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>På grov högstubbe av gran.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3748,7 +3755,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3767,10 +3773,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67914364</v>
+        <v>67913247</v>
       </c>
       <c r="B28" t="n">
-        <v>90665</v>
+        <v>89410</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3779,25 +3785,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3809,10 +3815,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>716675.1848726226</v>
+        <v>716979.9164224314</v>
       </c>
       <c r="R28" t="n">
-        <v>6646371.986039684</v>
+        <v>6646982.22850688</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3855,6 +3861,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På grenar på torrgran nära kärr.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3882,10 +3893,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67914198</v>
+        <v>67913143</v>
       </c>
       <c r="B29" t="n">
-        <v>99398</v>
+        <v>90697</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3894,41 +3905,40 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221235</v>
+        <v>5449</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>716578.2384365106</v>
+        <v>717185.8272155134</v>
       </c>
       <c r="R29" t="n">
-        <v>6646461.857673807</v>
+        <v>6646958.113689412</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3979,6 +3989,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3997,10 +4008,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67913188</v>
+        <v>73101105</v>
       </c>
       <c r="B30" t="n">
-        <v>90665</v>
+        <v>85077</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4013,39 +4024,47 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>3762</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>717179.1824814338</v>
+        <v>716788.3853775742</v>
       </c>
       <c r="R30" t="n">
-        <v>6646951.186559737</v>
+        <v>6646795.504157254</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4069,7 +4088,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4079,7 +4098,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4100,22 +4119,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67913183</v>
+        <v>73101093</v>
       </c>
       <c r="B31" t="n">
-        <v>90674</v>
+        <v>96355</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4128,39 +4147,53 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5964</v>
+        <v>219862</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>717196.8702048012</v>
+        <v>716677.9603077322</v>
       </c>
       <c r="R31" t="n">
-        <v>6646958.762340512</v>
+        <v>6646548.160545002</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4184,7 +4217,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4194,17 +4227,12 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4220,22 +4248,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67913274</v>
+        <v>73101110</v>
       </c>
       <c r="B32" t="n">
-        <v>73631</v>
+        <v>96312</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4248,39 +4276,45 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6426</v>
+        <v>219798</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>716880.97296897</v>
+        <v>717050.8085189572</v>
       </c>
       <c r="R32" t="n">
-        <v>6646865.800371076</v>
+        <v>6646718.372707062</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4304,7 +4338,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4314,7 +4348,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4322,39 +4356,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67913066</v>
+        <v>73101095</v>
       </c>
       <c r="B33" t="n">
-        <v>101680</v>
+        <v>108194</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4367,16 +4397,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222412</v>
+        <v>219711</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4386,21 +4416,26 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>717187.9496040216</v>
+        <v>716677.9603077322</v>
       </c>
       <c r="R33" t="n">
-        <v>6646939.130624352</v>
+        <v>6646548.160545002</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4424,7 +4459,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4434,7 +4469,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4448,28 +4483,29 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67914209</v>
+        <v>111667309</v>
       </c>
       <c r="B34" t="n">
-        <v>98520</v>
+        <v>5113</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4482,40 +4518,50 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>716578.2384365106</v>
+        <v>717045</v>
       </c>
       <c r="R34" t="n">
-        <v>6646461.857673807</v>
+        <v>6646924</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4539,27 +4585,17 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Allmänt förekommande inom området.</t>
+          <t>Larvgångar och ingångshål i veden på många granar som varit döda i några år.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4568,28 +4604,29 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Åke Lindelöw</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Åke Lindelöw</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67914162</v>
+        <v>67914010</v>
       </c>
       <c r="B35" t="n">
-        <v>99398</v>
+        <v>93235</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4602,25 +4639,33 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221235</v>
+        <v>210</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -4629,10 +4674,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>716532.9289578204</v>
+        <v>716545.1521927882</v>
       </c>
       <c r="R35" t="n">
-        <v>6646513.013206748</v>
+        <v>6646588.154634802</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4675,6 +4720,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4701,10 +4751,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67913254</v>
+        <v>67914177</v>
       </c>
       <c r="B36" t="n">
-        <v>101680</v>
+        <v>108194</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4717,16 +4767,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222412</v>
+        <v>219711</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4744,10 +4794,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>716951.0444857149</v>
+        <v>716551.2037129711</v>
       </c>
       <c r="R36" t="n">
-        <v>6646881.979102565</v>
+        <v>6646502.014087326</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4816,10 +4866,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67914880</v>
+        <v>67914236</v>
       </c>
       <c r="B37" t="n">
-        <v>90074</v>
+        <v>5113</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4832,36 +4882,43 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3298</v>
+        <v>100526</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>717163.0512021189</v>
+        <v>716606.9416252106</v>
       </c>
       <c r="R37" t="n">
-        <v>6646899.955352104</v>
+        <v>6646462.030048631</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4906,18 +4963,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>På torrgran.</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4936,10 +4987,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67913211</v>
+        <v>67914140</v>
       </c>
       <c r="B38" t="n">
-        <v>90674</v>
+        <v>85077</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4952,21 +5003,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5964</v>
+        <v>3762</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4978,10 +5029,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>717094.2343623195</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R38" t="n">
-        <v>6646948.209421237</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5024,11 +5075,6 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5056,7 +5102,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67914856</v>
+        <v>67914480</v>
       </c>
       <c r="B39" t="n">
         <v>90665</v>
@@ -5098,10 +5144,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>717129.1341034661</v>
+        <v>716678.2056377706</v>
       </c>
       <c r="R39" t="n">
-        <v>6646799.908343226</v>
+        <v>6646397.810981502</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5171,10 +5217,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67913818</v>
+        <v>67914073</v>
       </c>
       <c r="B40" t="n">
-        <v>90665</v>
+        <v>99398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5187,36 +5233,37 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4366</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>716671.0292412415</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R40" t="n">
-        <v>6646932.940137157</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5267,7 +5314,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5286,7 +5332,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67914178</v>
+        <v>67914379</v>
       </c>
       <c r="B41" t="n">
         <v>101680</v>
@@ -5329,10 +5375,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>716551.2037129711</v>
+        <v>716677.1987222674</v>
       </c>
       <c r="R41" t="n">
-        <v>6646502.014087326</v>
+        <v>6646389.202686813</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5401,10 +5447,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67914777</v>
+        <v>67914145</v>
       </c>
       <c r="B42" t="n">
-        <v>89410</v>
+        <v>90674</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5413,25 +5459,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5443,10 +5489,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>716852.0415224443</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R42" t="n">
-        <v>6646672.013723582</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5493,7 +5539,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>På grenar på gammal levande gran.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5521,10 +5567,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67913202</v>
+        <v>67914377</v>
       </c>
       <c r="B43" t="n">
-        <v>89410</v>
+        <v>99398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5533,40 +5579,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>221235</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>717132.8554776106</v>
+        <v>716677.1987222674</v>
       </c>
       <c r="R43" t="n">
-        <v>6646950.979990459</v>
+        <v>6646389.202686813</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5611,18 +5658,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>På grenar på torrgran.</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5641,10 +5682,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67914522</v>
+        <v>67914156</v>
       </c>
       <c r="B44" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5657,37 +5698,36 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>716658.238045899</v>
+        <v>716540.1688511835</v>
       </c>
       <c r="R44" t="n">
-        <v>6646558.06836888</v>
+        <v>6646527.014893715</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5732,17 +5772,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5761,10 +5797,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67914185</v>
+        <v>67914325</v>
       </c>
       <c r="B45" t="n">
-        <v>90674</v>
+        <v>73631</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5777,21 +5813,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5964</v>
+        <v>6426</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5803,10 +5839,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>716584.1544428288</v>
+        <v>716625.9801276408</v>
       </c>
       <c r="R45" t="n">
-        <v>6646489.862934983</v>
+        <v>6646438.000615025</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5853,7 +5889,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Allmänt förekommande inom området.</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5862,7 +5898,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5881,10 +5916,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67913247</v>
+        <v>67914183</v>
       </c>
       <c r="B46" t="n">
-        <v>89410</v>
+        <v>90319</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5893,25 +5928,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>4769</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5923,10 +5958,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>716979.9164224314</v>
+        <v>716584.1544428288</v>
       </c>
       <c r="R46" t="n">
-        <v>6646982.22850688</v>
+        <v>6646489.862934983</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5969,11 +6004,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>På grenar på torrgran nära kärr.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6001,10 +6031,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67913143</v>
+        <v>67914364</v>
       </c>
       <c r="B47" t="n">
-        <v>90697</v>
+        <v>90665</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6013,25 +6043,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6043,10 +6073,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>717185.8272155134</v>
+        <v>716675.1848726226</v>
       </c>
       <c r="R47" t="n">
-        <v>6646958.113689412</v>
+        <v>6646371.986039684</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6116,10 +6146,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>73074510</v>
+        <v>67914198</v>
       </c>
       <c r="B48" t="n">
-        <v>90665</v>
+        <v>99398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6132,39 +6162,40 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4366</v>
+        <v>221235</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>716692.486062364</v>
+        <v>716578.2384365106</v>
       </c>
       <c r="R48" t="n">
-        <v>6646360.427102973</v>
+        <v>6646461.857673807</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6188,7 +6219,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6198,7 +6229,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6212,29 +6243,28 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>73101105</v>
+        <v>67914209</v>
       </c>
       <c r="B49" t="n">
-        <v>85077</v>
+        <v>98520</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6247,47 +6277,40 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>716788.3853775742</v>
+        <v>716578.2384365106</v>
       </c>
       <c r="R49" t="n">
-        <v>6646795.504157254</v>
+        <v>6646461.857673807</v>
       </c>
       <c r="S49" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6311,7 +6334,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6321,7 +6344,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6329,35 +6352,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>73101093</v>
+        <v>67914162</v>
       </c>
       <c r="B50" t="n">
-        <v>96355</v>
+        <v>99398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6370,53 +6397,40 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>219862</v>
+        <v>221235</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>716677.9603077322</v>
+        <v>716532.9289578204</v>
       </c>
       <c r="R50" t="n">
-        <v>6646548.160545002</v>
+        <v>6646513.013206748</v>
       </c>
       <c r="S50" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6440,7 +6454,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6450,7 +6464,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6464,29 +6478,28 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>73101110</v>
+        <v>67914178</v>
       </c>
       <c r="B51" t="n">
-        <v>96312</v>
+        <v>101680</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6499,45 +6512,40 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>219798</v>
+        <v>222412</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>717050.8085189572</v>
+        <v>716551.2037129711</v>
       </c>
       <c r="R51" t="n">
-        <v>6646718.372707062</v>
+        <v>6646502.014087326</v>
       </c>
       <c r="S51" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6561,7 +6569,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6571,7 +6579,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6585,29 +6593,28 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>73101095</v>
+        <v>67914185</v>
       </c>
       <c r="B52" t="n">
-        <v>108194</v>
+        <v>90674</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6620,45 +6627,39 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>219711</v>
+        <v>5964</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>716677.9603077322</v>
+        <v>716584.1544428288</v>
       </c>
       <c r="R52" t="n">
-        <v>6646548.160545002</v>
+        <v>6646489.862934983</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6682,7 +6683,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6692,12 +6693,17 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6713,22 +6719,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111667309</v>
+        <v>73074510</v>
       </c>
       <c r="B53" t="n">
-        <v>5113</v>
+        <v>90665</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6741,50 +6747,39 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100526</v>
+        <v>4366</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Södra Rörvik, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>717045</v>
+        <v>716692.486062364</v>
       </c>
       <c r="R53" t="n">
-        <v>6646924</v>
+        <v>6646360.427102973</v>
       </c>
       <c r="S53" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6808,17 +6803,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2018-09-09</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Larvgångar och ingångshål i veden på många granar som varit döda i några år.</t>
+          <t>2018-09-09</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6834,12 +6834,12 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Åke Lindelöw</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Åke Lindelöw</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>

--- a/artfynd/A 32244-2020.xlsx
+++ b/artfynd/A 32244-2020.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67914826</v>
+        <v>67914010</v>
       </c>
       <c r="B3" t="n">
-        <v>108194</v>
+        <v>93235</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,25 +816,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219711</v>
+        <v>210</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -843,10 +851,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>717052.9258912012</v>
+        <v>716545.1521927882</v>
       </c>
       <c r="R3" t="n">
-        <v>6646811.022708044</v>
+        <v>6646588.154634802</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -889,6 +897,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67914804</v>
+        <v>67914826</v>
       </c>
       <c r="B4" t="n">
-        <v>88896</v>
+        <v>108194</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,48 +940,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>720</v>
+        <v>219711</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>717054.0436666304</v>
+        <v>717052.9258912012</v>
       </c>
       <c r="R4" t="n">
-        <v>6646791.97993397</v>
+        <v>6646811.022708044</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1019,7 +1025,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1038,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67913258</v>
+        <v>67914804</v>
       </c>
       <c r="B5" t="n">
-        <v>90319</v>
+        <v>88896</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,29 +1055,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>720</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1080,10 +1093,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>716944.959965172</v>
+        <v>717054.0436666304</v>
       </c>
       <c r="R5" t="n">
-        <v>6646874.079515913</v>
+        <v>6646791.97993397</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1153,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67913270</v>
+        <v>67913258</v>
       </c>
       <c r="B6" t="n">
-        <v>90661</v>
+        <v>90319</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1165,37 +1178,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2058</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1203,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>716880.2087797265</v>
+        <v>716944.959965172</v>
       </c>
       <c r="R6" t="n">
-        <v>6646878.829376921</v>
+        <v>6646874.079515913</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1249,11 +1254,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>I anslutning till vildsvinsbökad mark.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1281,10 +1281,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67913209</v>
+        <v>67914177</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>108194</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1293,52 +1293,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>219711</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>717094.2343623195</v>
+        <v>716551.2037129711</v>
       </c>
       <c r="R7" t="n">
-        <v>6646948.209421237</v>
+        <v>6646502.014087326</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1404,10 +1396,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67913282</v>
+        <v>67914236</v>
       </c>
       <c r="B8" t="n">
-        <v>89412</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1416,40 +1408,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>716818.1044006473</v>
+        <v>716606.9416252106</v>
       </c>
       <c r="R8" t="n">
-        <v>6647053.18770974</v>
+        <v>6646462.030048631</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1500,7 +1499,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1519,10 +1517,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67913278</v>
+        <v>67914140</v>
       </c>
       <c r="B9" t="n">
-        <v>4717</v>
+        <v>85077</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1535,43 +1533,36 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102306</v>
+        <v>3762</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>716755.7881303673</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R9" t="n">
-        <v>6646896.172787146</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1622,6 +1613,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1640,10 +1632,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67913139</v>
+        <v>67914480</v>
       </c>
       <c r="B10" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1656,37 +1648,36 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>717187.9496040216</v>
+        <v>716678.2056377706</v>
       </c>
       <c r="R10" t="n">
-        <v>6646939.130624352</v>
+        <v>6646397.810981502</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1731,17 +1722,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1760,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67913851</v>
+        <v>67913270</v>
       </c>
       <c r="B11" t="n">
-        <v>90074</v>
+        <v>90661</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1772,29 +1759,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>2058</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1802,10 +1797,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>716689.1208222503</v>
+        <v>716880.2087797265</v>
       </c>
       <c r="R11" t="n">
-        <v>6646907.853172779</v>
+        <v>6646878.829376921</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1852,7 +1847,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På höstubbe av gran.</t>
+          <t>I anslutning till vildsvinsbökad mark.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1880,10 +1875,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67913822</v>
+        <v>67913209</v>
       </c>
       <c r="B12" t="n">
-        <v>90674</v>
+        <v>56411</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1892,43 +1887,52 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>716671.0292412415</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R12" t="n">
-        <v>6646932.940137157</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1970,18 +1974,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2000,10 +1998,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67913289</v>
+        <v>67914073</v>
       </c>
       <c r="B13" t="n">
-        <v>73631</v>
+        <v>99398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2016,36 +2014,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6426</v>
+        <v>221235</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>716779.0899203173</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R13" t="n">
-        <v>6647014.194535435</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2088,11 +2087,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2119,10 +2113,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67914797</v>
+        <v>67914379</v>
       </c>
       <c r="B14" t="n">
-        <v>89410</v>
+        <v>101680</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,40 +2125,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>222412</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>717063.1636913288</v>
+        <v>716677.1987222674</v>
       </c>
       <c r="R14" t="n">
-        <v>6646773.909642578</v>
+        <v>6646389.202686813</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2209,18 +2204,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På grenar på gammal levande gran.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2239,10 +2228,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67914512</v>
+        <v>67913282</v>
       </c>
       <c r="B15" t="n">
-        <v>90005</v>
+        <v>89412</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,25 +2240,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1339</v>
+        <v>5442</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2281,10 +2270,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>716658.238045899</v>
+        <v>716818.1044006473</v>
       </c>
       <c r="R15" t="n">
-        <v>6646558.06836888</v>
+        <v>6647053.18770974</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2327,11 +2316,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På grov högstubbe av gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2359,10 +2343,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67913188</v>
+        <v>67913278</v>
       </c>
       <c r="B16" t="n">
-        <v>90665</v>
+        <v>4717</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2375,36 +2359,43 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>102306</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>717179.1824814338</v>
+        <v>716755.7881303673</v>
       </c>
       <c r="R16" t="n">
-        <v>6646951.186559737</v>
+        <v>6646896.172787146</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2455,7 +2446,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2474,7 +2464,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67913183</v>
+        <v>67914145</v>
       </c>
       <c r="B17" t="n">
         <v>90674</v>
@@ -2516,10 +2506,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>717196.8702048012</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R17" t="n">
-        <v>6646958.762340512</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2594,10 +2584,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67913274</v>
+        <v>67914377</v>
       </c>
       <c r="B18" t="n">
-        <v>73631</v>
+        <v>99398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2610,36 +2600,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6426</v>
+        <v>221235</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>716880.97296897</v>
+        <v>716677.1987222674</v>
       </c>
       <c r="R18" t="n">
-        <v>6646865.800371076</v>
+        <v>6646389.202686813</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2682,11 +2673,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2713,10 +2699,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67913066</v>
+        <v>67913139</v>
       </c>
       <c r="B19" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2729,21 +2715,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2804,6 +2790,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2828,10 +2819,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67913254</v>
+        <v>67913851</v>
       </c>
       <c r="B20" t="n">
-        <v>101680</v>
+        <v>90074</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2844,37 +2835,36 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222412</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>716951.0444857149</v>
+        <v>716689.1208222503</v>
       </c>
       <c r="R20" t="n">
-        <v>6646881.979102565</v>
+        <v>6646907.853172779</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2919,12 +2909,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>På höstubbe av gran.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2943,10 +2939,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67914880</v>
+        <v>67914156</v>
       </c>
       <c r="B21" t="n">
-        <v>90074</v>
+        <v>90665</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2959,21 +2955,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2985,10 +2981,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>717163.0512021189</v>
+        <v>716540.1688511835</v>
       </c>
       <c r="R21" t="n">
-        <v>6646899.955352104</v>
+        <v>6646527.014893715</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3031,11 +3027,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>På torrgran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3063,7 +3054,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67913211</v>
+        <v>67913822</v>
       </c>
       <c r="B22" t="n">
         <v>90674</v>
@@ -3105,10 +3096,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>717094.2343623195</v>
+        <v>716671.0292412415</v>
       </c>
       <c r="R22" t="n">
-        <v>6646948.209421237</v>
+        <v>6646932.940137157</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3183,10 +3174,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67914856</v>
+        <v>67914325</v>
       </c>
       <c r="B23" t="n">
-        <v>90665</v>
+        <v>73631</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3199,21 +3190,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4366</v>
+        <v>6426</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3225,10 +3216,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>717129.1341034661</v>
+        <v>716625.9801276408</v>
       </c>
       <c r="R23" t="n">
-        <v>6646799.908343226</v>
+        <v>6646438.000615025</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3273,13 +3264,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3298,10 +3293,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67913818</v>
+        <v>67913289</v>
       </c>
       <c r="B24" t="n">
-        <v>90665</v>
+        <v>73631</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3314,21 +3309,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>6426</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3340,10 +3335,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>716671.0292412415</v>
+        <v>716779.0899203173</v>
       </c>
       <c r="R24" t="n">
-        <v>6646932.940137157</v>
+        <v>6647014.194535435</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3388,13 +3383,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3413,7 +3412,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67914777</v>
+        <v>67914797</v>
       </c>
       <c r="B25" t="n">
         <v>89410</v>
@@ -3455,10 +3454,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>716852.0415224443</v>
+        <v>717063.1636913288</v>
       </c>
       <c r="R25" t="n">
-        <v>6646672.013723582</v>
+        <v>6646773.909642578</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3533,10 +3532,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67913202</v>
+        <v>67914183</v>
       </c>
       <c r="B26" t="n">
-        <v>89410</v>
+        <v>90319</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3545,25 +3544,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>4769</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3575,10 +3574,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>717132.8554776106</v>
+        <v>716584.1544428288</v>
       </c>
       <c r="R26" t="n">
-        <v>6646950.979990459</v>
+        <v>6646489.862934983</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3621,11 +3620,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På grenar på torrgran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3653,10 +3647,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67914522</v>
+        <v>67914512</v>
       </c>
       <c r="B27" t="n">
-        <v>98520</v>
+        <v>90005</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3669,27 +3663,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>1339</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
@@ -3746,7 +3739,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Allmänt förekommande inom området.</t>
+          <t>På grov högstubbe av gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3755,6 +3748,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3773,10 +3767,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67913247</v>
+        <v>67914364</v>
       </c>
       <c r="B28" t="n">
-        <v>89410</v>
+        <v>90665</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3785,25 +3779,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3815,10 +3809,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>716979.9164224314</v>
+        <v>716675.1848726226</v>
       </c>
       <c r="R28" t="n">
-        <v>6646982.22850688</v>
+        <v>6646371.986039684</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3861,11 +3855,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På grenar på torrgran nära kärr.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3893,10 +3882,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67913143</v>
+        <v>67914198</v>
       </c>
       <c r="B29" t="n">
-        <v>90697</v>
+        <v>99398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3905,40 +3894,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5449</v>
+        <v>221235</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>717185.8272155134</v>
+        <v>716578.2384365106</v>
       </c>
       <c r="R29" t="n">
-        <v>6646958.113689412</v>
+        <v>6646461.857673807</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3989,7 +3979,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4008,10 +3997,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>73101105</v>
+        <v>67913188</v>
       </c>
       <c r="B30" t="n">
-        <v>85077</v>
+        <v>90665</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4024,47 +4013,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3762</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>716788.3853775742</v>
+        <v>717179.1824814338</v>
       </c>
       <c r="R30" t="n">
-        <v>6646795.504157254</v>
+        <v>6646951.186559737</v>
       </c>
       <c r="S30" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4088,7 +4069,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4098,7 +4079,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4119,22 +4100,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>73101093</v>
+        <v>67913183</v>
       </c>
       <c r="B31" t="n">
-        <v>96355</v>
+        <v>90674</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4147,53 +4128,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>219862</v>
+        <v>5964</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>716677.9603077322</v>
+        <v>717196.8702048012</v>
       </c>
       <c r="R31" t="n">
-        <v>6646548.160545002</v>
+        <v>6646958.762340512</v>
       </c>
       <c r="S31" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4217,7 +4184,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4227,12 +4194,17 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4248,22 +4220,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>73101110</v>
+        <v>67913274</v>
       </c>
       <c r="B32" t="n">
-        <v>96312</v>
+        <v>73631</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4276,45 +4248,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>219798</v>
+        <v>6426</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>717050.8085189572</v>
+        <v>716880.97296897</v>
       </c>
       <c r="R32" t="n">
-        <v>6646718.372707062</v>
+        <v>6646865.800371076</v>
       </c>
       <c r="S32" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4338,7 +4304,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4348,7 +4314,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4356,35 +4322,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>73101095</v>
+        <v>67913066</v>
       </c>
       <c r="B33" t="n">
-        <v>108194</v>
+        <v>101680</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4397,16 +4367,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>219711</v>
+        <v>222412</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4416,26 +4386,21 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>716677.9603077322</v>
+        <v>717187.9496040216</v>
       </c>
       <c r="R33" t="n">
-        <v>6646548.160545002</v>
+        <v>6646939.130624352</v>
       </c>
       <c r="S33" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4459,7 +4424,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4469,7 +4434,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4483,29 +4448,28 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111667309</v>
+        <v>67914209</v>
       </c>
       <c r="B34" t="n">
-        <v>5113</v>
+        <v>98520</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4518,50 +4482,40 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Södra Rörvik, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>717045</v>
+        <v>716578.2384365106</v>
       </c>
       <c r="R34" t="n">
-        <v>6646924</v>
+        <v>6646461.857673807</v>
       </c>
       <c r="S34" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4585,17 +4539,27 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2017-09-28</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2017-09-28</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Larvgångar och ingångshål i veden på många granar som varit döda i några år.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4604,29 +4568,28 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Åke Lindelöw</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Åke Lindelöw</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67914010</v>
+        <v>67914162</v>
       </c>
       <c r="B35" t="n">
-        <v>93235</v>
+        <v>99398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4639,33 +4602,25 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>210</v>
+        <v>221235</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
@@ -4674,10 +4629,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>716545.1521927882</v>
+        <v>716532.9289578204</v>
       </c>
       <c r="R35" t="n">
-        <v>6646588.154634802</v>
+        <v>6646513.013206748</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4720,11 +4675,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4751,10 +4701,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67914177</v>
+        <v>67913254</v>
       </c>
       <c r="B36" t="n">
-        <v>108194</v>
+        <v>101680</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4767,16 +4717,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>219711</v>
+        <v>222412</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4794,10 +4744,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>716551.2037129711</v>
+        <v>716951.0444857149</v>
       </c>
       <c r="R36" t="n">
-        <v>6646502.014087326</v>
+        <v>6646881.979102565</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4866,10 +4816,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67914236</v>
+        <v>67914880</v>
       </c>
       <c r="B37" t="n">
-        <v>5113</v>
+        <v>90074</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4882,43 +4832,36 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100526</v>
+        <v>3298</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>716606.9416252106</v>
+        <v>717163.0512021189</v>
       </c>
       <c r="R37" t="n">
-        <v>6646462.030048631</v>
+        <v>6646899.955352104</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4963,12 +4906,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>På torrgran.</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4987,10 +4936,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67914140</v>
+        <v>67913211</v>
       </c>
       <c r="B38" t="n">
-        <v>85077</v>
+        <v>90674</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5003,21 +4952,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3762</v>
+        <v>5964</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5029,10 +4978,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>716558.9255464342</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R38" t="n">
-        <v>6646542.193822215</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5075,6 +5024,11 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5102,7 +5056,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67914480</v>
+        <v>67914856</v>
       </c>
       <c r="B39" t="n">
         <v>90665</v>
@@ -5144,10 +5098,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>716678.2056377706</v>
+        <v>717129.1341034661</v>
       </c>
       <c r="R39" t="n">
-        <v>6646397.810981502</v>
+        <v>6646799.908343226</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5217,10 +5171,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67914073</v>
+        <v>67913818</v>
       </c>
       <c r="B40" t="n">
-        <v>99398</v>
+        <v>90665</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5233,37 +5187,36 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>716558.9255464342</v>
+        <v>716671.0292412415</v>
       </c>
       <c r="R40" t="n">
-        <v>6646542.193822215</v>
+        <v>6646932.940137157</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5314,6 +5267,7 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5332,7 +5286,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67914379</v>
+        <v>67914178</v>
       </c>
       <c r="B41" t="n">
         <v>101680</v>
@@ -5375,10 +5329,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>716677.1987222674</v>
+        <v>716551.2037129711</v>
       </c>
       <c r="R41" t="n">
-        <v>6646389.202686813</v>
+        <v>6646502.014087326</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5447,10 +5401,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67914145</v>
+        <v>67914777</v>
       </c>
       <c r="B42" t="n">
-        <v>90674</v>
+        <v>89410</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5459,25 +5413,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5964</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5489,10 +5443,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>716558.9255464342</v>
+        <v>716852.0415224443</v>
       </c>
       <c r="R42" t="n">
-        <v>6646542.193822215</v>
+        <v>6646672.013723582</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5539,7 +5493,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Allmänt förekommande inom området.</t>
+          <t>På grenar på gammal levande gran.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5567,10 +5521,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67914377</v>
+        <v>67913202</v>
       </c>
       <c r="B43" t="n">
-        <v>99398</v>
+        <v>89410</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5579,41 +5533,40 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221235</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>716677.1987222674</v>
+        <v>717132.8554776106</v>
       </c>
       <c r="R43" t="n">
-        <v>6646389.202686813</v>
+        <v>6646950.979990459</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5658,12 +5611,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>På grenar på torrgran.</t>
+        </is>
+      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5682,10 +5641,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67914156</v>
+        <v>67914522</v>
       </c>
       <c r="B44" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5698,36 +5657,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>716540.1688511835</v>
+        <v>716658.238045899</v>
       </c>
       <c r="R44" t="n">
-        <v>6646527.014893715</v>
+        <v>6646558.06836888</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5772,13 +5732,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5797,10 +5761,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67914325</v>
+        <v>67914185</v>
       </c>
       <c r="B45" t="n">
-        <v>73631</v>
+        <v>90674</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5813,21 +5777,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6426</v>
+        <v>5964</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5839,10 +5803,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>716625.9801276408</v>
+        <v>716584.1544428288</v>
       </c>
       <c r="R45" t="n">
-        <v>6646438.000615025</v>
+        <v>6646489.862934983</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5889,7 +5853,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5898,6 +5862,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5916,10 +5881,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67914183</v>
+        <v>67913247</v>
       </c>
       <c r="B46" t="n">
-        <v>90319</v>
+        <v>89410</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5928,25 +5893,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4769</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5958,10 +5923,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>716584.1544428288</v>
+        <v>716979.9164224314</v>
       </c>
       <c r="R46" t="n">
-        <v>6646489.862934983</v>
+        <v>6646982.22850688</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6004,6 +5969,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>På grenar på torrgran nära kärr.</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6031,10 +6001,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67914364</v>
+        <v>67913143</v>
       </c>
       <c r="B47" t="n">
-        <v>90665</v>
+        <v>90697</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6043,25 +6013,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6073,10 +6043,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>716675.1848726226</v>
+        <v>717185.8272155134</v>
       </c>
       <c r="R47" t="n">
-        <v>6646371.986039684</v>
+        <v>6646958.113689412</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6146,10 +6116,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67914198</v>
+        <v>73074510</v>
       </c>
       <c r="B48" t="n">
-        <v>99398</v>
+        <v>90665</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6162,40 +6132,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>716578.2384365106</v>
+        <v>716692.486062364</v>
       </c>
       <c r="R48" t="n">
-        <v>6646461.857673807</v>
+        <v>6646360.427102973</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6219,7 +6188,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6229,7 +6198,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6243,28 +6212,29 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67914209</v>
+        <v>73101105</v>
       </c>
       <c r="B49" t="n">
-        <v>98520</v>
+        <v>85077</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6277,40 +6247,47 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>716578.2384365106</v>
+        <v>716788.3853775742</v>
       </c>
       <c r="R49" t="n">
-        <v>6646461.857673807</v>
+        <v>6646795.504157254</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6334,7 +6311,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6344,7 +6321,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6352,39 +6329,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67914162</v>
+        <v>73101093</v>
       </c>
       <c r="B50" t="n">
-        <v>99398</v>
+        <v>96355</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6397,40 +6370,53 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>221235</v>
+        <v>219862</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>716532.9289578204</v>
+        <v>716677.9603077322</v>
       </c>
       <c r="R50" t="n">
-        <v>6646513.013206748</v>
+        <v>6646548.160545002</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6454,7 +6440,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6464,7 +6450,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6478,28 +6464,29 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67914178</v>
+        <v>73101110</v>
       </c>
       <c r="B51" t="n">
-        <v>101680</v>
+        <v>96312</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6512,40 +6499,45 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222412</v>
+        <v>219798</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>716551.2037129711</v>
+        <v>717050.8085189572</v>
       </c>
       <c r="R51" t="n">
-        <v>6646502.014087326</v>
+        <v>6646718.372707062</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6569,7 +6561,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6579,7 +6571,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6593,28 +6585,29 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67914185</v>
+        <v>73101095</v>
       </c>
       <c r="B52" t="n">
-        <v>90674</v>
+        <v>108194</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6627,39 +6620,45 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5964</v>
+        <v>219711</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>716584.1544428288</v>
+        <v>716677.9603077322</v>
       </c>
       <c r="R52" t="n">
-        <v>6646489.862934983</v>
+        <v>6646548.160545002</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6683,7 +6682,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6693,17 +6692,12 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6719,22 +6713,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>73074510</v>
+        <v>111667309</v>
       </c>
       <c r="B53" t="n">
-        <v>90665</v>
+        <v>5113</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6747,39 +6741,50 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4366</v>
+        <v>100526</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>716692.486062364</v>
+        <v>717045</v>
       </c>
       <c r="R53" t="n">
-        <v>6646360.427102973</v>
+        <v>6646924</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6803,22 +6808,17 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Larvgångar och ingångshål i veden på många granar som varit döda i några år.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6834,12 +6834,12 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Åke Lindelöw</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Åke Lindelöw</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
